--- a/participants_with_tokens.xlsx
+++ b/participants_with_tokens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,16 +459,6 @@
           <t>Year</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Token</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EmailSent</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,14 +484,6 @@
       <c r="E2" t="n">
         <v>2021</v>
       </c>
-      <c r="F2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,14 +509,6 @@
       <c r="E3" t="n">
         <v>2022</v>
       </c>
-      <c r="F3" t="n">
-        <v>1001</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,14 +534,6 @@
       <c r="E4" t="n">
         <v>2023</v>
       </c>
-      <c r="F4" t="n">
-        <v>1002</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -593,13 +559,30 @@
       <c r="E5" t="n">
         <v>2022</v>
       </c>
-      <c r="F5" t="n">
-        <v>1003</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>tarun</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>U654341</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2200039159@kluniversity.in</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Category-2</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>

--- a/participants_with_tokens.xlsx
+++ b/participants_with_tokens.xlsx
@@ -486,8 +486,10 @@
           <t>Category-1</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>2021</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Y21</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -516,8 +518,10 @@
           <t>Category-2</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>2022</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Y22</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -546,8 +550,10 @@
           <t>Category-1</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>2023</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Y23</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -576,8 +582,10 @@
           <t>category-2</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>2022</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Y22</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -606,8 +614,10 @@
           <t>Category-2</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>2020</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Y20</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
